--- a/biology/Zoologie/Atlasaurus/Atlasaurus.xlsx
+++ b/biology/Zoologie/Atlasaurus/Atlasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlasaurus est un genre éteint de dinosaure sauropode du Jurassique.
 Son nom signifie "très grand reptile de l'Atlas"
@@ -489,7 +501,7 @@
 Poids: 22,5 tonnes environ
 Habitat: Maroc
 Régime alimentaire: herbivore
-Une espèce est connue : Atlasaurus imelakei Monbaron et al., 1999[1].
+Une espèce est connue : Atlasaurus imelakei Monbaron et al., 1999.
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers fragments ont été trouvés en 1979 par le géologue suisse Michel Monbaron dans le Haut Atlas central marocain (Wawmda). Les fouilles du gisement ont été menées en automne 1980 et printemps 1981, sous la direction du Professeur Philippe Taquet (Muséum de Paris). Un squelette quasi complet a été exhumé, à l'exception de l'extrémité de la queue. Le dégagement des ossements en laboratoire et leur étude ont pris plusieurs années et ont requis la collaboration de nombreux spécialistes, dont Dale A. Russell.
 Ce fossile présente des ressemblances avec les brachiosaures mais les précèdent de 15 millions d'années. Les deux fémurs trouvés sur le site mesuraient 2 mètres de long.
@@ -550,7 +564,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Squelette presque complet.
 </t>
